--- a/output/adsis.xlsx
+++ b/output/adsis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -546,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,7 +564,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,10 +673,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -766,15 +784,24 @@
         <v>0.4458256012761821</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>144230</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -873,15 +900,24 @@
         <v>0.4458256012761821</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>98002</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -980,15 +1016,24 @@
         <v>0.4458256012761821</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>489666</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1087,15 +1132,24 @@
         <v>0.4458256012761821</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>14688</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1194,15 +1248,24 @@
         <v>0.4665208348392947</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>113169</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1301,15 +1364,24 @@
         <v>0.4665208348392947</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>8165</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1408,15 +1480,24 @@
         <v>0.4665208348392947</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>455641</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1515,15 +1596,24 @@
         <v>0.4665208348392947</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>27885</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1622,15 +1712,24 @@
         <v>0.3892866201491015</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>98785</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1729,15 +1828,24 @@
         <v>0.3892866201491015</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>104378</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1836,15 +1944,24 @@
         <v>0.3892866201491015</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>1263</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1943,15 +2060,24 @@
         <v>0.3892866201491015</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>344594</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2050,15 +2176,24 @@
         <v>0.3892866201491015</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>114122</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2157,15 +2292,24 @@
         <v>0.507426019841918</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>65698.34</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2264,15 +2408,24 @@
         <v>0.507426019841918</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>205601.53</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2371,15 +2524,24 @@
         <v>0.507426019841918</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>60752.98</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2478,15 +2640,24 @@
         <v>0.5806073920575456</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>65698.34</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2585,15 +2756,24 @@
         <v>0.5806073920575456</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>205601.53</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2692,15 +2872,24 @@
         <v>0.5806073920575456</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>60752.98</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2799,15 +2988,24 @@
         <v>0.5833898335331323</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>98570.5</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2906,15 +3104,24 @@
         <v>0.5833898335331323</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>29200</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3013,15 +3220,24 @@
         <v>0.5833898335331323</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>64200</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3120,15 +3336,24 @@
         <v>0.7182755772117347</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>98570.5</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3227,15 +3452,24 @@
         <v>0.7182755772117347</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>29200</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3334,15 +3568,24 @@
         <v>0.7182755772117347</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>64200</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3441,15 +3684,24 @@
         <v>0.5208458195018197</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>477890</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3548,15 +3800,24 @@
         <v>0.5208458195018197</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>337815</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3655,9 +3916,18 @@
         <v>0.5208458195018197</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>440056</v>
       </c>
     </row>

--- a/output/adsis.xlsx
+++ b/output/adsis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -555,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,7 +570,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,10 +688,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -742,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>439893</v>
+        <v>457157</v>
       </c>
       <c r="U2">
         <v>5</v>
@@ -778,30 +790,36 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>986693</v>
+        <v>1003957</v>
       </c>
       <c r="AH2">
-        <v>0.4458256012761821</v>
+        <v>0.4553551596333309</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>1996</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>144230</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -858,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>439893</v>
+        <v>457157</v>
       </c>
       <c r="U3">
         <v>5</v>
@@ -894,30 +912,36 @@
         <v>4266738</v>
       </c>
       <c r="AG3">
-        <v>986693</v>
+        <v>1003957</v>
       </c>
       <c r="AH3">
-        <v>0.4458256012761821</v>
+        <v>0.4553551596333309</v>
       </c>
       <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>1996</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>98002</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -974,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>439893</v>
+        <v>457157</v>
       </c>
       <c r="U4">
         <v>5</v>
@@ -1010,30 +1034,36 @@
         <v>3433758</v>
       </c>
       <c r="AG4">
-        <v>986693</v>
+        <v>1003957</v>
       </c>
       <c r="AH4">
-        <v>0.4458256012761821</v>
+        <v>0.4553551596333309</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>1996</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>489666</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1090,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>439893</v>
+        <v>457157</v>
       </c>
       <c r="U5">
         <v>5</v>
@@ -1126,30 +1156,36 @@
         <v>5201043</v>
       </c>
       <c r="AG5">
-        <v>986693</v>
+        <v>1003957</v>
       </c>
       <c r="AH5">
-        <v>0.4458256012761821</v>
+        <v>0.4553551596333309</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>1996</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>14688</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1248,24 +1284,30 @@
         <v>0.4665208348392947</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>1996</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>113169</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1364,24 +1406,30 @@
         <v>0.4665208348392947</v>
       </c>
       <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>1996</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>8165</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1480,24 +1528,30 @@
         <v>0.4665208348392947</v>
       </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>1996</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>455641</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1596,24 +1650,30 @@
         <v>0.4665208348392947</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>1996</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>27885</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1670,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>626194</v>
+        <v>627609</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -1706,30 +1766,36 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>1608568</v>
+        <v>1609983</v>
       </c>
       <c r="AH10">
-        <v>0.3892866201491015</v>
+        <v>0.3898233708057787</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>1996</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>98785</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1786,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>626194</v>
+        <v>627609</v>
       </c>
       <c r="U11">
         <v>3</v>
@@ -1822,30 +1888,36 @@
         <v>2169360</v>
       </c>
       <c r="AG11">
-        <v>1608568</v>
+        <v>1609983</v>
       </c>
       <c r="AH11">
-        <v>0.3892866201491015</v>
+        <v>0.3898233708057787</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>1996</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>104378</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1902,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>626194</v>
+        <v>627609</v>
       </c>
       <c r="U12">
         <v>3</v>
@@ -1938,30 +2010,36 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>1608568</v>
+        <v>1609983</v>
       </c>
       <c r="AH12">
-        <v>0.3892866201491015</v>
+        <v>0.3898233708057787</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>1996</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>1263</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2018,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>626194</v>
+        <v>627609</v>
       </c>
       <c r="U13">
         <v>3</v>
@@ -2054,30 +2132,36 @@
         <v>2299220</v>
       </c>
       <c r="AG13">
-        <v>1608568</v>
+        <v>1609983</v>
       </c>
       <c r="AH13">
-        <v>0.3892866201491015</v>
+        <v>0.3898233708057787</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>1996</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>344594</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2134,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>626194</v>
+        <v>627609</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -2170,30 +2254,36 @@
         <v>2304887</v>
       </c>
       <c r="AG14">
-        <v>1608568</v>
+        <v>1609983</v>
       </c>
       <c r="AH14">
-        <v>0.3892866201491015</v>
+        <v>0.3898233708057787</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>1996</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>114122</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2292,24 +2382,30 @@
         <v>0.507426019841918</v>
       </c>
       <c r="AI15">
+        <v>0.02043717111865574</v>
+      </c>
+      <c r="AJ15">
         <v>1996</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>65698.34</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2408,24 +2504,30 @@
         <v>0.507426019841918</v>
       </c>
       <c r="AI16">
+        <v>0.02043717111865574</v>
+      </c>
+      <c r="AJ16">
         <v>1996</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>205601.53</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2524,24 +2626,30 @@
         <v>0.507426019841918</v>
       </c>
       <c r="AI17">
+        <v>0.02043717111865574</v>
+      </c>
+      <c r="AJ17">
         <v>1996</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>60752.98</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2640,24 +2748,30 @@
         <v>0.5806073920575456</v>
       </c>
       <c r="AI18">
+        <v>0.03337938773933297</v>
+      </c>
+      <c r="AJ18">
         <v>1996</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>65698.34</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2756,24 +2870,30 @@
         <v>0.5806073920575456</v>
       </c>
       <c r="AI19">
+        <v>0.03337938773933297</v>
+      </c>
+      <c r="AJ19">
         <v>1996</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>205601.53</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2872,24 +2992,30 @@
         <v>0.5806073920575456</v>
       </c>
       <c r="AI20">
+        <v>0.03337938773933297</v>
+      </c>
+      <c r="AJ20">
         <v>1996</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>60752.98</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2946,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>787857.4399999999</v>
+        <v>789097.4399999999</v>
       </c>
       <c r="U21">
         <v>12</v>
@@ -2982,30 +3108,36 @@
         <v>10602689</v>
       </c>
       <c r="AG21">
-        <v>1350481.95</v>
+        <v>1351721.95</v>
       </c>
       <c r="AH21">
-        <v>0.5833898335331323</v>
+        <v>0.5837720102126033</v>
       </c>
       <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>1996</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>98570.5</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3062,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>787857.4399999999</v>
+        <v>789097.4399999999</v>
       </c>
       <c r="U22">
         <v>12</v>
@@ -3098,30 +3230,36 @@
         <v>6011154</v>
       </c>
       <c r="AG22">
-        <v>1350481.95</v>
+        <v>1351721.95</v>
       </c>
       <c r="AH22">
-        <v>0.5833898335331323</v>
+        <v>0.5837720102126033</v>
       </c>
       <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>1996</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>29200</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3178,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>787857.4399999999</v>
+        <v>789097.4399999999</v>
       </c>
       <c r="U23">
         <v>12</v>
@@ -3214,30 +3352,36 @@
         <v>6615978</v>
       </c>
       <c r="AG23">
-        <v>1350481.95</v>
+        <v>1351721.95</v>
       </c>
       <c r="AH23">
-        <v>0.5833898335331323</v>
+        <v>0.5837720102126033</v>
       </c>
       <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
         <v>1996</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>64200</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3336,24 +3480,30 @@
         <v>0.7182755772117347</v>
       </c>
       <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>1996</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>98570.5</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3452,24 +3602,30 @@
         <v>0.7182755772117347</v>
       </c>
       <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>1996</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>29200</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3568,24 +3724,30 @@
         <v>0.7182755772117347</v>
       </c>
       <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>1996</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>64200</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3684,24 +3846,30 @@
         <v>0.5208458195018197</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>1996</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>477890</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3800,24 +3968,30 @@
         <v>0.5208458195018197</v>
       </c>
       <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>1996</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>337815</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3916,18 +4090,24 @@
         <v>0.5208458195018197</v>
       </c>
       <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
         <v>1996</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>440056</v>
       </c>
     </row>

--- a/output/adsis.xlsx
+++ b/output/adsis.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7800</v>
+        <v>9502.243585046588</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9270</v>
+        <v>10385.96443195552</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10710</v>
+        <v>10883.31535948899</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12340</v>
+        <v>13455.83781255333</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D29">
         <v>0</v>

--- a/output/adsis.xlsx
+++ b/output/adsis.xlsx
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>65698.34</v>
+        <v>104378</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>205601.53</v>
+        <v>344594</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>60752.98</v>
+        <v>114122</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>98570.5</v>
+        <v>65698.34</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>29200</v>
+        <v>205601.53</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>64200</v>
+        <v>60752.98</v>
       </c>
       <c r="F26">
         <v>0</v>

--- a/output/adsis.xlsx
+++ b/output/adsis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -139,43 +139,7 @@
     <t>Dinero_en_el_proyecto</t>
   </si>
   <si>
-    <t>2009_argentina</t>
-  </si>
-  <si>
-    <t>2009_bolivia</t>
-  </si>
-  <si>
-    <t>2009_ecuador</t>
-  </si>
-  <si>
     <t>2009_peru</t>
-  </si>
-  <si>
-    <t>2010_argentina</t>
-  </si>
-  <si>
-    <t>2010_bolivia</t>
-  </si>
-  <si>
-    <t>2010_ecuador</t>
-  </si>
-  <si>
-    <t>2010_peru</t>
-  </si>
-  <si>
-    <t>2011_argentina</t>
-  </si>
-  <si>
-    <t>2011_bolivia</t>
-  </si>
-  <si>
-    <t>2011_chile</t>
-  </si>
-  <si>
-    <t>2011_ecuador</t>
-  </si>
-  <si>
-    <t>2011_peru</t>
   </si>
   <si>
     <t>2012_bolivia</t>
@@ -561,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9502.243585046588</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>95696</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -763,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -780,14 +744,8 @@
       <c r="AC2">
         <v>0</v>
       </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
-        <v>0</v>
+        <v>5201043</v>
       </c>
       <c r="AG2">
         <v>1003957</v>
@@ -814,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="AO2">
-        <v>144230</v>
+        <v>14688</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -825,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1909.084588129339</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -846,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="K3">
-        <v>546800</v>
+        <v>693056.01</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -858,28 +816,28 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>546800</v>
+        <v>723056.01</v>
       </c>
       <c r="O3">
-        <v>40948</v>
+        <v>75239</v>
       </c>
       <c r="P3">
-        <v>75802</v>
+        <v>9960</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>111653.05</v>
       </c>
       <c r="R3">
-        <v>323143</v>
+        <v>548005.47</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>457157</v>
+        <v>744857.52</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -888,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -903,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4266738</v>
+        <v>1075368</v>
       </c>
       <c r="AG3">
-        <v>1003957</v>
+        <v>1467913.53</v>
       </c>
       <c r="AH3">
-        <v>0.4553551596333309</v>
+        <v>0.507426019841918</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.02043717111865574</v>
       </c>
       <c r="AJ3">
         <v>1996</v>
@@ -930,13 +888,13 @@
         <v>1</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>1</v>
       </c>
       <c r="AO3">
-        <v>98002</v>
+        <v>65698.34</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -947,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4547.50930098406</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>272472</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -968,10 +926,10 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="K4">
-        <v>546800</v>
+        <v>693056.01</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -980,28 +938,28 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>546800</v>
+        <v>723056.01</v>
       </c>
       <c r="O4">
-        <v>40948</v>
+        <v>75239</v>
       </c>
       <c r="P4">
-        <v>75802</v>
+        <v>9960</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>111653.05</v>
       </c>
       <c r="R4">
-        <v>323143</v>
+        <v>548005.47</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>457157</v>
+        <v>744857.52</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1010,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1025,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>3433758</v>
+        <v>1093204.9</v>
       </c>
       <c r="AG4">
-        <v>1003957</v>
+        <v>1467913.53</v>
       </c>
       <c r="AH4">
-        <v>0.4553551596333309</v>
+        <v>0.507426019841918</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.02043717111865574</v>
       </c>
       <c r="AJ4">
         <v>1996</v>
@@ -1052,13 +1010,13 @@
         <v>1</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>1</v>
       </c>
       <c r="AO4">
-        <v>489666</v>
+        <v>205601.53</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1069,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4729.735976516416</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>32325</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1090,10 +1048,10 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="K5">
-        <v>546800</v>
+        <v>693056.01</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1102,28 +1060,28 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>546800</v>
+        <v>723056.01</v>
       </c>
       <c r="O5">
-        <v>40948</v>
+        <v>75239</v>
       </c>
       <c r="P5">
-        <v>75802</v>
+        <v>9960</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>111653.05</v>
       </c>
       <c r="R5">
-        <v>323143</v>
+        <v>548005.47</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>457157</v>
+        <v>744857.52</v>
       </c>
       <c r="U5">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1132,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -1147,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>5201043</v>
+        <v>623636.9</v>
       </c>
       <c r="AG5">
-        <v>1003957</v>
+        <v>1467913.53</v>
       </c>
       <c r="AH5">
-        <v>0.4553551596333309</v>
+        <v>0.507426019841918</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.02043717111865574</v>
       </c>
       <c r="AJ5">
         <v>1996</v>
@@ -1174,13 +1132,13 @@
         <v>1</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>1</v>
       </c>
       <c r="AO5">
-        <v>14688</v>
+        <v>60752.98</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1191,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10385.96443195552</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>144230</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1212,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>37700</v>
       </c>
       <c r="K6">
-        <v>649449</v>
+        <v>435978.59</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1224,28 +1182,28 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>649449</v>
+        <v>473678.59</v>
       </c>
       <c r="O6">
-        <v>100016</v>
+        <v>59614.95</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>25405.09</v>
       </c>
       <c r="Q6">
-        <v>91019</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>376900</v>
+        <v>570740.9</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>567935</v>
+        <v>655760.9400000001</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1254,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -1269,22 +1227,22 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>747460</v>
       </c>
       <c r="AG6">
-        <v>1217384</v>
+        <v>1129439.53</v>
       </c>
       <c r="AH6">
-        <v>0.4665208348392947</v>
+        <v>0.5806073920575456</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.03337938773933297</v>
       </c>
       <c r="AJ6">
         <v>1996</v>
@@ -1296,13 +1254,13 @@
         <v>1</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>1</v>
       </c>
       <c r="AO6">
-        <v>113169</v>
+        <v>65698.34</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1313,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1955.461557360978</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>98002</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1334,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>37700</v>
       </c>
       <c r="K7">
-        <v>649449</v>
+        <v>435978.59</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1346,28 +1304,28 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>649449</v>
+        <v>473678.59</v>
       </c>
       <c r="O7">
-        <v>100016</v>
+        <v>59614.95</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>25405.09</v>
       </c>
       <c r="Q7">
-        <v>91019</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>376900</v>
+        <v>570740.9</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>567935</v>
+        <v>655760.9400000001</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1376,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1391,22 +1349,22 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>38993399</v>
+        <v>747460</v>
       </c>
       <c r="AG7">
-        <v>1217384</v>
+        <v>1129439.53</v>
       </c>
       <c r="AH7">
-        <v>0.4665208348392947</v>
+        <v>0.5806073920575456</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.03337938773933297</v>
       </c>
       <c r="AJ7">
         <v>1996</v>
@@ -1418,13 +1376,13 @@
         <v>1</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
         <v>1</v>
       </c>
       <c r="AO7">
-        <v>8165</v>
+        <v>205601.53</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1435,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4633.590358399045</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>489666</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1456,10 +1414,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>37700</v>
       </c>
       <c r="K8">
-        <v>649449</v>
+        <v>435978.59</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1468,28 +1426,28 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>649449</v>
+        <v>473678.59</v>
       </c>
       <c r="O8">
-        <v>100016</v>
+        <v>59614.95</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>25405.09</v>
       </c>
       <c r="Q8">
-        <v>91019</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>376900</v>
+        <v>570740.9</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>567935</v>
+        <v>655760.9400000001</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1498,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1513,22 +1471,22 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>32846422</v>
+        <v>747460</v>
       </c>
       <c r="AG8">
-        <v>1217384</v>
+        <v>1129439.53</v>
       </c>
       <c r="AH8">
-        <v>0.4665208348392947</v>
+        <v>0.5806073920575456</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.03337938773933297</v>
       </c>
       <c r="AJ8">
         <v>1996</v>
@@ -1540,13 +1498,13 @@
         <v>1</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8">
         <v>1</v>
       </c>
       <c r="AO8">
-        <v>455641</v>
+        <v>60752.98</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1557,13 +1515,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5082.354756663512</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14688</v>
+        <v>65698.34</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1581,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>649449</v>
+        <v>562624.51</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1590,28 +1548,28 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>649449</v>
+        <v>562624.51</v>
       </c>
       <c r="O9">
-        <v>100016</v>
+        <v>39065.59</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>33912.26</v>
       </c>
       <c r="Q9">
-        <v>91019</v>
+        <v>5600</v>
       </c>
       <c r="R9">
-        <v>376900</v>
+        <v>709279.59</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>567935</v>
+        <v>789097.4399999999</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1620,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1635,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>27999397</v>
+        <v>10602689</v>
       </c>
       <c r="AG9">
-        <v>1217384</v>
+        <v>1351721.95</v>
       </c>
       <c r="AH9">
-        <v>0.4665208348392947</v>
+        <v>0.5837720102126033</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1662,13 +1620,13 @@
         <v>1</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9">
         <v>1</v>
       </c>
       <c r="AO9">
-        <v>27885</v>
+        <v>98570.5</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1679,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10883.31535948899</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>113169</v>
+        <v>205601.53</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1703,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>982374</v>
+        <v>562624.51</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1712,28 +1670,28 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>982374</v>
+        <v>562624.51</v>
       </c>
       <c r="O10">
-        <v>77614</v>
+        <v>39065.59</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>33912.26</v>
       </c>
       <c r="Q10">
-        <v>118906</v>
+        <v>5600</v>
       </c>
       <c r="R10">
-        <v>429674</v>
+        <v>709279.59</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>627609</v>
+        <v>789097.4399999999</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1742,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1757,19 +1715,19 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>6011154</v>
       </c>
       <c r="AG10">
-        <v>1609983</v>
+        <v>1351721.95</v>
       </c>
       <c r="AH10">
-        <v>0.3898233708057787</v>
+        <v>0.5837720102126033</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1790,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="AO10">
-        <v>98785</v>
+        <v>29200</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1801,13 +1759,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2024.117324382548</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8165</v>
+        <v>60752.98</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1825,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>982374</v>
+        <v>562624.51</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1834,28 +1792,28 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>982374</v>
+        <v>562624.51</v>
       </c>
       <c r="O11">
-        <v>77614</v>
+        <v>39065.59</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>33912.26</v>
       </c>
       <c r="Q11">
-        <v>118906</v>
+        <v>5600</v>
       </c>
       <c r="R11">
-        <v>429674</v>
+        <v>709279.59</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>627609</v>
+        <v>789097.4399999999</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1864,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1879,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>2169360</v>
+        <v>6615978</v>
       </c>
       <c r="AG11">
-        <v>1609983</v>
+        <v>1351721.95</v>
       </c>
       <c r="AH11">
-        <v>0.3898233708057787</v>
+        <v>0.5837720102126033</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1912,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="AO11">
-        <v>104378</v>
+        <v>64200</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1923,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13455.83781255333</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>65698.34</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1947,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>982374</v>
+        <v>384251.22</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1956,28 +1914,28 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>982374</v>
+        <v>384251.22</v>
       </c>
       <c r="O12">
-        <v>77614</v>
+        <v>61843.28</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>39500</v>
       </c>
       <c r="Q12">
-        <v>118906</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>429674</v>
+        <v>878331.34</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>627609</v>
+        <v>979674.62</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1986,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2001,19 +1959,19 @@
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>346667</v>
       </c>
       <c r="AG12">
-        <v>1609983</v>
+        <v>1363925.84</v>
       </c>
       <c r="AH12">
-        <v>0.3898233708057787</v>
+        <v>0.7182755772117347</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -2034,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>1263</v>
+        <v>98570.5</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2045,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4921.848409120176</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>455641</v>
+        <v>205601.53</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2069,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>982374</v>
+        <v>384251.22</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2078,28 +2036,28 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>982374</v>
+        <v>384251.22</v>
       </c>
       <c r="O13">
-        <v>77614</v>
+        <v>61843.28</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>39500</v>
       </c>
       <c r="Q13">
-        <v>118906</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>429674</v>
+        <v>878331.34</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>627609</v>
+        <v>979674.62</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2108,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -2123,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>2299220</v>
+        <v>484307</v>
       </c>
       <c r="AG13">
-        <v>1609983</v>
+        <v>1363925.84</v>
       </c>
       <c r="AH13">
-        <v>0.3898233708057787</v>
+        <v>0.7182755772117347</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -2156,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="AO13">
-        <v>344594</v>
+        <v>29200</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2167,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5360.226632400601</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>27885</v>
+        <v>60752.98</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2191,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>982374</v>
+        <v>384251.22</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2200,28 +2158,28 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>982374</v>
+        <v>384251.22</v>
       </c>
       <c r="O14">
-        <v>77614</v>
+        <v>61843.28</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>39500</v>
       </c>
       <c r="Q14">
-        <v>118906</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>429674</v>
+        <v>878331.34</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>627609</v>
+        <v>979674.62</v>
       </c>
       <c r="U14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2230,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -2245,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>2304887</v>
+        <v>753508</v>
       </c>
       <c r="AG14">
-        <v>1609983</v>
+        <v>1363925.84</v>
       </c>
       <c r="AH14">
-        <v>0.3898233708057787</v>
+        <v>0.7182755772117347</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -2278,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="AO14">
-        <v>114122</v>
+        <v>64200</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2289,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2094.024217383061</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>104378</v>
+        <v>98570.5</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2310,10 +2268,10 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>693056.01</v>
+        <v>1578963</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2322,28 +2280,28 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>723056.01</v>
+        <v>1578963</v>
       </c>
       <c r="O15">
-        <v>75239</v>
+        <v>76651</v>
       </c>
       <c r="P15">
-        <v>9960</v>
+        <v>78875</v>
       </c>
       <c r="Q15">
-        <v>111653.05</v>
+        <v>520666</v>
       </c>
       <c r="R15">
-        <v>548005.47</v>
+        <v>1040158</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>744857.52</v>
+        <v>1716350</v>
       </c>
       <c r="U15">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2352,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -2367,22 +2325,22 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>1075368</v>
+        <v>615503</v>
       </c>
       <c r="AG15">
-        <v>1467913.53</v>
+        <v>3295313</v>
       </c>
       <c r="AH15">
-        <v>0.507426019841918</v>
+        <v>0.5208458195018197</v>
       </c>
       <c r="AI15">
-        <v>0.02043717111865574</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
         <v>1996</v>
@@ -2400,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="AO15">
-        <v>65698.34</v>
+        <v>477890</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2411,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5122.180090208862</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>344594</v>
+        <v>29200</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2432,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>693056.01</v>
+        <v>1578963</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2444,28 +2402,28 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>723056.01</v>
+        <v>1578963</v>
       </c>
       <c r="O16">
-        <v>75239</v>
+        <v>76651</v>
       </c>
       <c r="P16">
-        <v>9960</v>
+        <v>78875</v>
       </c>
       <c r="Q16">
-        <v>111653.05</v>
+        <v>520666</v>
       </c>
       <c r="R16">
-        <v>548005.47</v>
+        <v>1040158</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>744857.52</v>
+        <v>1716350</v>
       </c>
       <c r="U16">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2474,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2489,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>1093204.9</v>
+        <v>1384810</v>
       </c>
       <c r="AG16">
-        <v>1467913.53</v>
+        <v>3295313</v>
       </c>
       <c r="AH16">
-        <v>0.507426019841918</v>
+        <v>0.5208458195018197</v>
       </c>
       <c r="AI16">
-        <v>0.02043717111865574</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
         <v>1996</v>
@@ -2522,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="AO16">
-        <v>205601.53</v>
+        <v>337815</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2533,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5642.578115155247</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>114122</v>
+        <v>64200</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2554,10 +2512,10 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>693056.01</v>
+        <v>1578963</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2566,28 +2524,28 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>723056.01</v>
+        <v>1578963</v>
       </c>
       <c r="O17">
-        <v>75239</v>
+        <v>76651</v>
       </c>
       <c r="P17">
-        <v>9960</v>
+        <v>78875</v>
       </c>
       <c r="Q17">
-        <v>111653.05</v>
+        <v>520666</v>
       </c>
       <c r="R17">
-        <v>548005.47</v>
+        <v>1040158</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>744857.52</v>
+        <v>1716350</v>
       </c>
       <c r="U17">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2596,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -2611,22 +2569,22 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>623636.9</v>
+        <v>822168</v>
       </c>
       <c r="AG17">
-        <v>1467913.53</v>
+        <v>3295313</v>
       </c>
       <c r="AH17">
-        <v>0.507426019841918</v>
+        <v>0.5208458195018197</v>
       </c>
       <c r="AI17">
-        <v>0.02043717111865574</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
         <v>1996</v>
@@ -2644,1470 +2602,6 @@
         <v>1</v>
       </c>
       <c r="AO17">
-        <v>60752.98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>2201.396847776877</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>104378</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>37700</v>
-      </c>
-      <c r="K18">
-        <v>435978.59</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>473678.59</v>
-      </c>
-      <c r="O18">
-        <v>59614.95</v>
-      </c>
-      <c r="P18">
-        <v>25405.09</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>570740.9</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>655760.9400000001</v>
-      </c>
-      <c r="U18">
-        <v>14</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>14</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>20</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>747460</v>
-      </c>
-      <c r="AG18">
-        <v>1129439.53</v>
-      </c>
-      <c r="AH18">
-        <v>0.5806073920575456</v>
-      </c>
-      <c r="AI18">
-        <v>0.03337938773933297</v>
-      </c>
-      <c r="AJ18">
-        <v>1996</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>1</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
-      <c r="AO18">
-        <v>65698.34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>5295.682695961288</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>344594</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>37700</v>
-      </c>
-      <c r="K19">
-        <v>435978.59</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>473678.59</v>
-      </c>
-      <c r="O19">
-        <v>59614.95</v>
-      </c>
-      <c r="P19">
-        <v>25405.09</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>570740.9</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>655760.9400000001</v>
-      </c>
-      <c r="U19">
-        <v>14</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>14</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>20</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>747460</v>
-      </c>
-      <c r="AG19">
-        <v>1129439.53</v>
-      </c>
-      <c r="AH19">
-        <v>0.5806073920575456</v>
-      </c>
-      <c r="AI19">
-        <v>0.03337938773933297</v>
-      </c>
-      <c r="AJ19">
-        <v>1996</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>1</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>205601.53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>5919.20956823756</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>114122</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>37700</v>
-      </c>
-      <c r="K20">
-        <v>435978.59</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>473678.59</v>
-      </c>
-      <c r="O20">
-        <v>59614.95</v>
-      </c>
-      <c r="P20">
-        <v>25405.09</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>570740.9</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>655760.9400000001</v>
-      </c>
-      <c r="U20">
-        <v>14</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>14</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>20</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>747460</v>
-      </c>
-      <c r="AG20">
-        <v>1129439.53</v>
-      </c>
-      <c r="AH20">
-        <v>0.5806073920575456</v>
-      </c>
-      <c r="AI20">
-        <v>0.03337938773933297</v>
-      </c>
-      <c r="AJ20">
-        <v>1996</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>1</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <v>60752.98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>2286.013198234259</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>65698.34</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>562624.51</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>562624.51</v>
-      </c>
-      <c r="O21">
-        <v>39065.59</v>
-      </c>
-      <c r="P21">
-        <v>33912.26</v>
-      </c>
-      <c r="Q21">
-        <v>5600</v>
-      </c>
-      <c r="R21">
-        <v>709279.59</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>789097.4399999999</v>
-      </c>
-      <c r="U21">
-        <v>12</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>12</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>85</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>10602689</v>
-      </c>
-      <c r="AG21">
-        <v>1351721.95</v>
-      </c>
-      <c r="AH21">
-        <v>0.5837720102126033</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>1996</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>1</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21">
-        <v>98570.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>5412.131646018807</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>205601.53</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>562624.51</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>562624.51</v>
-      </c>
-      <c r="O22">
-        <v>39065.59</v>
-      </c>
-      <c r="P22">
-        <v>33912.26</v>
-      </c>
-      <c r="Q22">
-        <v>5600</v>
-      </c>
-      <c r="R22">
-        <v>709279.59</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>789097.4399999999</v>
-      </c>
-      <c r="U22">
-        <v>12</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>12</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>85</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>6011154</v>
-      </c>
-      <c r="AG22">
-        <v>1351721.95</v>
-      </c>
-      <c r="AH22">
-        <v>0.5837720102126033</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>1996</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>1</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>1</v>
-      </c>
-      <c r="AO22">
-        <v>29200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>5996.49696468919</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>60752.98</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>562624.51</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>562624.51</v>
-      </c>
-      <c r="O23">
-        <v>39065.59</v>
-      </c>
-      <c r="P23">
-        <v>33912.26</v>
-      </c>
-      <c r="Q23">
-        <v>5600</v>
-      </c>
-      <c r="R23">
-        <v>709279.59</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>789097.4399999999</v>
-      </c>
-      <c r="U23">
-        <v>12</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>12</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>85</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>6615978</v>
-      </c>
-      <c r="AG23">
-        <v>1351721.95</v>
-      </c>
-      <c r="AH23">
-        <v>0.5837720102126033</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>1996</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>1</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>1</v>
-      </c>
-      <c r="AO23">
-        <v>64200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>2361.056581219794</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>65698.34</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>384251.22</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>384251.22</v>
-      </c>
-      <c r="O24">
-        <v>61843.28</v>
-      </c>
-      <c r="P24">
-        <v>39500</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>878331.34</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>979674.62</v>
-      </c>
-      <c r="U24">
-        <v>12</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>12</v>
-      </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>44</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>346667</v>
-      </c>
-      <c r="AG24">
-        <v>1363925.84</v>
-      </c>
-      <c r="AH24">
-        <v>0.7182755772117347</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>1996</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>1</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>1</v>
-      </c>
-      <c r="AO24">
-        <v>98570.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>5330.539154475424</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>205601.53</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>384251.22</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>384251.22</v>
-      </c>
-      <c r="O25">
-        <v>61843.28</v>
-      </c>
-      <c r="P25">
-        <v>39500</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>878331.34</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>979674.62</v>
-      </c>
-      <c r="U25">
-        <v>12</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>12</v>
-      </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>44</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>484307</v>
-      </c>
-      <c r="AG25">
-        <v>1363925.84</v>
-      </c>
-      <c r="AH25">
-        <v>0.7182755772117347</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>1996</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>1</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>29200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>6114.227214287786</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>60752.98</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>384251.22</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>384251.22</v>
-      </c>
-      <c r="O26">
-        <v>61843.28</v>
-      </c>
-      <c r="P26">
-        <v>39500</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>878331.34</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>979674.62</v>
-      </c>
-      <c r="U26">
-        <v>12</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>12</v>
-      </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>44</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>753508</v>
-      </c>
-      <c r="AG26">
-        <v>1363925.84</v>
-      </c>
-      <c r="AH26">
-        <v>0.7182755772117347</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>1996</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>1</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>64200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>2425.561644739583</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>98570.5</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>1578963</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>1578963</v>
-      </c>
-      <c r="O27">
-        <v>76651</v>
-      </c>
-      <c r="P27">
-        <v>78875</v>
-      </c>
-      <c r="Q27">
-        <v>520666</v>
-      </c>
-      <c r="R27">
-        <v>1040158</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>1716350</v>
-      </c>
-      <c r="U27">
-        <v>6</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>6</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>7</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>615503</v>
-      </c>
-      <c r="AG27">
-        <v>3295313</v>
-      </c>
-      <c r="AH27">
-        <v>0.5208458195018197</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>1996</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>1</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>477890</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>5176.058803160127</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>29200</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1578963</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1578963</v>
-      </c>
-      <c r="O28">
-        <v>76651</v>
-      </c>
-      <c r="P28">
-        <v>78875</v>
-      </c>
-      <c r="Q28">
-        <v>520666</v>
-      </c>
-      <c r="R28">
-        <v>1040158</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>1716350</v>
-      </c>
-      <c r="U28">
-        <v>6</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>6</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>7</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>1384810</v>
-      </c>
-      <c r="AG28">
-        <v>3295313</v>
-      </c>
-      <c r="AH28">
-        <v>0.5208458195018197</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>1996</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>1</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>337815</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>6262.368904654469</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>64200</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>1578963</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>1578963</v>
-      </c>
-      <c r="O29">
-        <v>76651</v>
-      </c>
-      <c r="P29">
-        <v>78875</v>
-      </c>
-      <c r="Q29">
-        <v>520666</v>
-      </c>
-      <c r="R29">
-        <v>1040158</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>1716350</v>
-      </c>
-      <c r="U29">
-        <v>6</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>6</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>7</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>822168</v>
-      </c>
-      <c r="AG29">
-        <v>3295313</v>
-      </c>
-      <c r="AH29">
-        <v>0.5208458195018197</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>1996</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>1</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
         <v>440056</v>
       </c>
     </row>
